--- a/biology/Neurosciences/Ganglion_géniculé/Ganglion_géniculé.xlsx
+++ b/biology/Neurosciences/Ganglion_géniculé/Ganglion_géniculé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ganglion_g%C3%A9nicul%C3%A9</t>
+          <t>Ganglion_géniculé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ganglion géniculé est un ganglion nerveux situé dans le canal facial de l'os temporal, au niveau du premier coude du nerf facial, en regard du hiatus du canal du nerf petit pétreux. C'est un ganglion conique à sommet antérieur et dont la base se confond avec le nerf facial. Il reçoit les deux racines du nerf facial, c'est-à-dire le nerf facial proprement dit et le nerf intermédiaire. De ce ganglion partent :
 le tronc du nerf facial ;
